--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1AAF957-64C6-4C33-A389-025F7DA1F009}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F52D04-4DE0-4B2A-B843-93B4F9FBC720}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>7:10pm</t>
+  </si>
+  <si>
+    <t>1:35pm</t>
+  </si>
+  <si>
+    <t>11:10am</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>10:00am</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,13 +148,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,9 +192,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F5" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F6" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -457,18 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -494,22 +510,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="2">
         <v>45903</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2">
         <v>40</v>
       </c>
     </row>
@@ -534,14 +550,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="A5" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F52D04-4DE0-4B2A-B843-93B4F9FBC720}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E4970F-22C8-49FF-8CA2-A2A50D7E5329}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>10:00am</t>
+  </si>
+  <si>
+    <t>8:10pm</t>
+  </si>
+  <si>
+    <t>8:40pm</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>11:15am</t>
+  </si>
+  <si>
+    <t>10:30am</t>
   </si>
 </sst>
 </file>
@@ -136,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,6 +169,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -197,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F6" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F7" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -474,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +608,41 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="A6" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E4970F-22C8-49FF-8CA2-A2A50D7E5329}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A092502-3091-4F54-8F6C-42DDC3E8E877}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>10:30am</t>
+  </si>
+  <si>
+    <t>3:30pm</t>
+  </si>
+  <si>
+    <t>3:45pm</t>
   </si>
 </sst>
 </file>
@@ -218,8 +224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F7" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F8" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +650,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A092502-3091-4F54-8F6C-42DDC3E8E877}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41BA893C-757B-40B4-BA24-60E7E8AEF4D6}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>3:45pm</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>9:30am</t>
+  </si>
+  <si>
+    <t>12:25pm</t>
   </si>
 </sst>
 </file>
@@ -224,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F8" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F9" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +676,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41BA893C-757B-40B4-BA24-60E7E8AEF4D6}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC34BB0E-170D-4E3A-8225-021D5B12260A}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>12:25pm</t>
+  </si>
+  <si>
+    <t>9:15am</t>
+  </si>
+  <si>
+    <t>9:40am</t>
+  </si>
+  <si>
+    <t>9:25am</t>
+  </si>
+  <si>
+    <t>12:05pm</t>
   </si>
 </sst>
 </file>
@@ -233,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F9" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F11" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +708,43 @@
         <v>55</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC34BB0E-170D-4E3A-8225-021D5B12260A}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AAF2A6-FF34-4FFC-85BC-1881BCF94322}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43515" yWindow="1365" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>12:05pm</t>
+  </si>
+  <si>
+    <t>9:55am</t>
+  </si>
+  <si>
+    <t>11:35am</t>
   </si>
 </sst>
 </file>
@@ -240,13 +246,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F11" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F12" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -522,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +747,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AAF2A6-FF34-4FFC-85BC-1881BCF94322}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6BD8A4-FE9C-4E1B-B635-05B9A3A8202D}"/>
   <bookViews>
-    <workbookView xWindow="43515" yWindow="1365" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3540" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>11:35am</t>
+  </si>
+  <si>
+    <t>7:45pm</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F12" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F13" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -524,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +774,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6BD8A4-FE9C-4E1B-B635-05B9A3A8202D}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006F8F04-82AB-4A39-B23E-D1BA03763966}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3540" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>7:45pm</t>
+  </si>
+  <si>
+    <t>10:55am</t>
   </si>
 </sst>
 </file>
@@ -254,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F13" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F14" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -531,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -791,6 +794,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006F8F04-82AB-4A39-B23E-D1BA03763966}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA02D694-04B4-4BB8-BE8F-A806D5BB1A70}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3540" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -257,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F14" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F15" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,10 +808,27 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AAF2A6-FF34-4FFC-85BC-1881BCF94322}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5E8412-4F9F-482F-87FA-C766A42D5FFA}"/>
   <bookViews>
-    <workbookView xWindow="43515" yWindow="1365" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>11:35am</t>
+  </si>
+  <si>
+    <t>9:35am</t>
+  </si>
+  <si>
+    <t>10:50am</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>1:45pm</t>
+  </si>
+  <si>
+    <t>2:35pm</t>
+  </si>
+  <si>
+    <t>11:05am</t>
   </si>
 </sst>
 </file>
@@ -246,9 +264,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F12" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F15" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -524,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +789,63 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5E8412-4F9F-482F-87FA-C766A42D5FFA}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0189FEBA-3415-544C-8962-DEEBEF5F61FF}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,10 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0189FEBA-3415-544C-8962-DEEBEF5F61FF}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40614C7-4072-45E1-B183-F3FF948F12BD}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -264,9 +264,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F15" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F16" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +846,12 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40614C7-4072-45E1-B183-F3FF948F12BD}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C148B112-68ED-4C31-A7F7-A0FBE335FC5B}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>11:05am</t>
+  </si>
+  <si>
+    <t>1:20pm</t>
   </si>
 </sst>
 </file>
@@ -262,10 +265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +548,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,9 +846,23 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" t="s">
         <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA02D694-04B4-4BB8-BE8F-A806D5BB1A70}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D52A83A6-D404-478C-A8D1-2B4C2FD17E63}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -140,10 +140,28 @@
     <t>11:35am</t>
   </si>
   <si>
-    <t>7:45pm</t>
-  </si>
-  <si>
-    <t>10:55am</t>
+    <t>9:35am</t>
+  </si>
+  <si>
+    <t>10:50am</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>1:45pm</t>
+  </si>
+  <si>
+    <t>2:35pm</t>
+  </si>
+  <si>
+    <t>11:05am</t>
+  </si>
+  <si>
+    <t>1:20pm</t>
+  </si>
+  <si>
+    <t>9:10am</t>
   </si>
 </sst>
 </file>
@@ -252,13 +270,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F15" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F17" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -534,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +793,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45931</v>
+        <v>45939</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>35</v>
@@ -796,39 +813,79 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
         <v>2</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D52A83A6-D404-478C-A8D1-2B4C2FD17E63}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17FC76F-D841-4F52-B250-6CB023A2CFE6}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>9:10am</t>
+  </si>
+  <si>
+    <t>11:25am</t>
+  </si>
+  <si>
+    <t>8:50am</t>
+  </si>
+  <si>
+    <t>11:55am</t>
   </si>
 </sst>
 </file>
@@ -270,9 +279,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F17" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F20" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -548,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +901,66 @@
         <v>55</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45960</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45967</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45968</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17FC76F-D841-4F52-B250-6CB023A2CFE6}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F3FFA7A-2DFF-4693-8754-E3D076270349}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>11:55am</t>
+  </si>
+  <si>
+    <t>9:05am</t>
+  </si>
+  <si>
+    <t>10:40am</t>
   </si>
 </sst>
 </file>
@@ -284,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F20" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F21" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +967,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F3FFA7A-2DFF-4693-8754-E3D076270349}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF62DA03-E87D-4689-AACF-9A617E5CF5CC}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -290,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F21" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F22" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +987,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45975</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF62DA03-E87D-4689-AACF-9A617E5CF5CC}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12C9B7A-C18E-494E-89C7-4A5443550994}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -290,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F22" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F23" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1007,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45981</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12C9B7A-C18E-494E-89C7-4A5443550994}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D6FBCA-1B26-4876-8053-D27F965D6708}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>10:40am</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>11:30am</t>
   </si>
 </sst>
 </file>
@@ -290,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F23" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F24" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1030,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45982</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D6FBCA-1B26-4876-8053-D27F965D6708}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54CCE07-26BC-4219-9A34-28D956952429}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>11:30am</t>
+  </si>
+  <si>
+    <t>11:50am</t>
   </si>
 </sst>
 </file>
@@ -296,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F24" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F25" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1053,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54CCE07-26BC-4219-9A34-28D956952429}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775B988F-C590-42BB-B817-0A46085BEF60}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>11:50am</t>
+  </si>
+  <si>
+    <t>10:05am</t>
   </si>
 </sst>
 </file>
@@ -299,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F25" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F26" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1076,26 @@
         <v>45</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775B988F-C590-42BB-B817-0A46085BEF60}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E068D1AA-FF6A-4153-8CD0-03735FF01950}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t>10:05am</t>
+  </si>
+  <si>
+    <t>9:20am</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>10:20am</t>
+  </si>
+  <si>
+    <t>10:35am</t>
+  </si>
+  <si>
+    <t>pair-maker</t>
+  </si>
+  <si>
+    <t>11:45am</t>
+  </si>
+  <si>
+    <t>12:15pm</t>
+  </si>
+  <si>
+    <t>11:20am</t>
+  </si>
+  <si>
+    <t>12:10pm</t>
+  </si>
+  <si>
+    <t>1:05pm</t>
+  </si>
+  <si>
+    <t>10:10am</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
   </si>
 </sst>
 </file>
@@ -302,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F26" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F35" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -579,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,6 +1132,177 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>46009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>46010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>46013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>46014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>46024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E068D1AA-FF6A-4153-8CD0-03735FF01950}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ADCECE-550B-4E45-BC54-E614B36892B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -225,6 +225,27 @@
   </si>
   <si>
     <t>1:00pm</t>
+  </si>
+  <si>
+    <t>practice traversals</t>
+  </si>
+  <si>
+    <t>10:55am</t>
+  </si>
+  <si>
+    <t>9:50am</t>
+  </si>
+  <si>
+    <t>step 4-5</t>
+  </si>
+  <si>
+    <t>1:40pm</t>
+  </si>
+  <si>
+    <t>2:30pm</t>
+  </si>
+  <si>
+    <t>12:30pm</t>
   </si>
 </sst>
 </file>
@@ -338,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F35" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F43" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -615,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1324,163 @@
         <v>50</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>46037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>46038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>46044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ADCECE-550B-4E45-BC54-E614B36892B5}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BFE23BD-2172-49A0-A0D1-E51DE1F95C8C}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -359,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F43" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F45" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1481,46 @@
         <v>40</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46059</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>46065</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BFE23BD-2172-49A0-A0D1-E51DE1F95C8C}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{526D20C6-694B-449F-B85C-5CDA99273D9F}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>12:30pm</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Library link: 5743df90-4636-4e2a-becb-65433b8d8ba4</t>
   </si>
 </sst>
 </file>
@@ -359,15 +365,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F45" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G47" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
     <tableColumn id="3" xr3:uid="{6616267E-A6FD-45C0-BD96-FB2BB5444766}" name="Start"/>
     <tableColumn id="4" xr3:uid="{D799F330-2E16-44A8-B612-549B757FCDD6}" name="End"/>
     <tableColumn id="5" xr3:uid="{32294426-6E67-454D-B568-D027B672364C}" name="Hr"/>
     <tableColumn id="6" xr3:uid="{0FAA8414-7A22-41DC-8101-FF226C9523D2}" name="Min"/>
+    <tableColumn id="7" xr3:uid="{7DCE9B8A-86D6-490F-89E5-FC1942AEBCCD}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,9 +656,10 @@
     <col min="3" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +678,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45903</v>
       </c>
@@ -691,7 +702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45905</v>
       </c>
@@ -711,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45909</v>
       </c>
@@ -728,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45911</v>
       </c>
@@ -748,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45917</v>
       </c>
@@ -765,7 +776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45918</v>
       </c>
@@ -785,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45918</v>
       </c>
@@ -802,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45919</v>
       </c>
@@ -822,7 +833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45922</v>
       </c>
@@ -839,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45925</v>
       </c>
@@ -859,7 +870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45926</v>
       </c>
@@ -879,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45939</v>
       </c>
@@ -899,7 +910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45939</v>
       </c>
@@ -916,7 +927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45940</v>
       </c>
@@ -936,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45946</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>46014</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>46024</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>46030</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>46031</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>46037</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46038</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>46038</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>46044</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>46045</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>46052</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>46058</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>46059</v>
       </c>
@@ -1501,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>46065</v>
       </c>
@@ -1519,6 +1530,49 @@
       </c>
       <c r="F45">
         <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46066</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46072</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{526D20C6-694B-449F-B85C-5CDA99273D9F}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C752CD7A-E2A0-49BF-B8B6-63680DA8EFD1}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -365,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G47" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G48" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G48" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1575,26 @@
         <v>55</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46073</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C752CD7A-E2A0-49BF-B8B6-63680DA8EFD1}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BC53C53-30BD-4239-8570-0B51F6A95153}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -365,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G48" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G48" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G49" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,6 +1595,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46079</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-submissions/timelog.xlsx
+++ b/student-submissions/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52640ecffeb77e34/Desktop/ap-csp_25-26/student-submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BC53C53-30BD-4239-8570-0B51F6A95153}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC104851519951F65BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0496242-5FD5-44C8-B07D-54C92EAA1DDF}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="3870" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -365,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G49" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}" name="Table1" displayName="Table1" ref="A1:G50" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G50" xr:uid="{AE583CA1-19F4-4655-8238-5B4F7D02D2E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D7DFE132-8D06-4200-B59C-2AA5013F5117}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4BBA18C6-2B58-4ABE-848F-D6FEBC7AB0AF}" name="Topics"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,6 +1615,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46080</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
